--- a/복사본 (1분반)2013136046_박주환_마이크로프로세서_재료구매신청서_최종.xlsx
+++ b/복사본 (1분반)2013136046_박주환_마이크로프로세서_재료구매신청서_최종.xlsx
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>브레드보드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RGB LED 커먼 애노드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,15 +101,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">아두이노 블루투스 모듈 HC-06 슬레이브(Slave), 마스터(Master) 겸용, HC06 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>막대저항 R1/4W-33옴 20개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">지지대 볼트 M3 X 50mm x 5mm (서포트) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,20 +173,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">아두이노 Grove 케이블 Base 쉴드 연결 케이블 
-(Grove - Universal 4 Pin Buckled 20cm Cable) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1(EA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40핀 커넥터 M-M 20cm (Male - Male), 점퍼케이블 / 점퍼선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://mechasolution.com/shop/goods/goods_view.php?goodsno=515&amp;category=062002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아두이노 블루투스 모듈 HC-06
+ 슬레이브(Slave), 마스터(Master) 겸용,
+ HC06 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레드보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지지대 볼트
+ M3 X 50mm x 5mm (서포트) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아두이노 Grove 케이블 Base 쉴드 
+연결 케이블(Grove - Universal 4 Pin Buckled 20cm Cable) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40핀 커넥터 M-M 20cm 
+(Male - Male), 점퍼케이블 / 점퍼선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,37 +378,37 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,7 +1031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,15 +1041,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="71.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="86.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.375" customWidth="1"/>
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1053,66 +1057,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="12">
         <v>2013136046</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1141,20 +1145,20 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="4">
         <v>4840</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4">
         <v>4840</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1163,19 +1167,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4">
         <v>1320</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4">
         <v>1320</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1184,19 +1188,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>550</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
         <v>550</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1204,20 +1208,20 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>330</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4">
         <v>1320</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1226,79 +1230,79 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>440</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>37</v>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <v>6600</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="8">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8">
         <v>238</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="11">
         <v>1190</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="13"/>
+      <c r="F12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <v>28040</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>33</v>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="4">
         <v>56080</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1306,39 +1310,39 @@
       <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>39</v>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="4">
         <v>1100</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>36</v>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="4">
         <v>2200</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="16" t="s">
-        <v>41</v>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="4">
         <v>1210</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>40</v>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="4">
         <v>1210</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1358,11 +1362,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
@@ -1370,6 +1369,11 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1384,7 +1388,7 @@
     <hyperlink ref="F17" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId10"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" horizontalDpi="4294967292" r:id="rId10"/>
   <drawing r:id="rId11"/>
 </worksheet>
 </file>